--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>血量</t>
+  </si>
+  <si>
+    <t>eChapterType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>正常\</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1076,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1197,6 +1206,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>正常\</t>
+  </si>
+  <si>
+    <t>eEntityType</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Object</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1220,6 +1241,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10">
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
